--- a/biology/Médecine/Déficit_en_transporteur_de_glucose_de_type_1/Déficit_en_transporteur_de_glucose_de_type_1.xlsx
+++ b/biology/Médecine/Déficit_en_transporteur_de_glucose_de_type_1/Déficit_en_transporteur_de_glucose_de_type_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_transporteur_de_glucose_de_type_1</t>
+          <t>Déficit_en_transporteur_de_glucose_de_type_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le déficit en transporteur de glucose de type 1 (GLUT1) - parfois appelé maladie de De Vivo (du nom du chercheur Darryl De Vivo) - est une maladie génétique récemment individualisée se manifestant chez un nouveau-né, issu d'une grossesse sans particularité et d'un poids normal, par des crises d'épilepsies infantiles résistantes au traitement anti-convulsivant. La maladie apparaît entre un et quatre mois de vie précédant un ralentissement de la croissance du périmètre crânien, d'un retard développement moteur, d'une spasticité et de manifestations neurologiques paroxysmiques.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_transporteur_de_glucose_de_type_1</t>
+          <t>Déficit_en_transporteur_de_glucose_de_type_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic se fait par l'association d'un taux bas de glucose sanguin avec un taux bas de glucose dans le liquide cérébrospinal.
-La maladie est rare, mais est traitable[1].
+La maladie est rare, mais est traitable.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_transporteur_de_glucose_de_type_1</t>
+          <t>Déficit_en_transporteur_de_glucose_de_type_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Dong Wang, Juan M Pascual, Darryl De Vivo, Glucose Transporter Type 1 Deficiency Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005</t>
         </is>
